--- a/team_specific_matrix/St. Thomas (MN)_A.xlsx
+++ b/team_specific_matrix/St. Thomas (MN)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2074829931972789</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2723404255319149</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3148936170212766</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.3875968992248062</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09429280397022333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02481389578163772</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.06699751861042183</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1861042183622829</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.109181141439206</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3647642679900744</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1217105263157895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008223684210526315</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.07648026315789473</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1151315789473684</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08141447368421052</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3462171052631579</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1273584905660377</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.02542372881355932</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1692913385826772</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3425196850393701</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2519685039370079</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1601941747572816</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1067961165048544</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1955555555555556</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.09555555555555556</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.06565656565656566</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02720450281425891</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1857410881801126</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09380863039399624</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3874296435272045</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01594746716697936</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0009380863039399625</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1060037523452158</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. Thomas (MN)_A.xlsx
+++ b/team_specific_matrix/St. Thomas (MN)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2074829931972789</v>
+        <v>0.2006369426751592</v>
       </c>
       <c r="C2">
-        <v>0.5578231292517006</v>
+        <v>0.5732484076433121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01020408163265306</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1530612244897959</v>
+        <v>0.1496815286624204</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07142857142857142</v>
+        <v>0.06687898089171974</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005882352941176471</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C3">
-        <v>0.02941176470588235</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01176470588235294</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8117647058823529</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1411764705882353</v>
+        <v>0.1711229946524064</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.74</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2619047619047619</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07234042553191489</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008510638297872341</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E6">
-        <v>0.008510638297872341</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="F6">
-        <v>0.05531914893617021</v>
+        <v>0.05284552845528456</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2723404255319149</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01276595744680851</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1702127659574468</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.0851063829787234</v>
+        <v>0.09349593495934959</v>
       </c>
       <c r="S6">
-        <v>0.3148936170212766</v>
+        <v>0.3130081300813008</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06201550387596899</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01550387596899225</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08527131782945736</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1705426356589147</v>
+        <v>0.1560283687943262</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2093023255813954</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="R7">
-        <v>0.04651162790697674</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="S7">
-        <v>0.3875968992248062</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09429280397022333</v>
+        <v>0.09490740740740741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02481389578163772</v>
+        <v>0.02546296296296296</v>
       </c>
       <c r="E8">
-        <v>0.002481389578163772</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="F8">
-        <v>0.06699751861042183</v>
+        <v>0.06712962962962964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02233250620347394</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1861042183622829</v>
+        <v>0.1875</v>
       </c>
       <c r="R8">
-        <v>0.109181141439206</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="S8">
-        <v>0.3647642679900744</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1171171171171171</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01801801801801802</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06306306306306306</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1216216216216216</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02702702702702703</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2027027027027027</v>
+        <v>0.1991525423728814</v>
       </c>
       <c r="R9">
-        <v>0.1261261261261261</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="S9">
-        <v>0.3243243243243243</v>
+        <v>0.326271186440678</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1217105263157895</v>
+        <v>0.1205837173579109</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01973684210526316</v>
+        <v>0.02457757296466974</v>
       </c>
       <c r="E10">
-        <v>0.0008223684210526315</v>
+        <v>0.0007680491551459293</v>
       </c>
       <c r="F10">
-        <v>0.07648026315789473</v>
+        <v>0.07450076804915515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151315789473684</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01973684210526316</v>
+        <v>0.01920122887864823</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21875</v>
+        <v>0.2188940092165899</v>
       </c>
       <c r="R10">
-        <v>0.08141447368421052</v>
+        <v>0.08141321044546851</v>
       </c>
       <c r="S10">
-        <v>0.3462171052631579</v>
+        <v>0.3494623655913979</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1509433962264151</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1273584905660377</v>
+        <v>0.1244444444444444</v>
       </c>
       <c r="K11">
-        <v>0.2028301886792453</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5094339622641509</v>
+        <v>0.5155555555555555</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009433962264150943</v>
+        <v>0.008888888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6779661016949152</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.211864406779661</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="L12">
-        <v>0.07627118644067797</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02542372881355932</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02362204724409449</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1692913385826772</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="I15">
-        <v>0.1062992125984252</v>
+        <v>0.1082089552238806</v>
       </c>
       <c r="J15">
-        <v>0.3425196850393701</v>
+        <v>0.3507462686567164</v>
       </c>
       <c r="K15">
-        <v>0.02755905511811024</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01181102362204724</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="N15">
-        <v>0.003937007874015748</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="O15">
-        <v>0.06299212598425197</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2519685039370079</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03398058252427184</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1601941747572816</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="I16">
-        <v>0.0970873786407767</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="J16">
-        <v>0.3980582524271845</v>
+        <v>0.4080717488789238</v>
       </c>
       <c r="K16">
-        <v>0.1019417475728155</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03883495145631068</v>
+        <v>0.03587443946188341</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06310679611650485</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1067961165048544</v>
+        <v>0.1076233183856502</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.01882845188284519</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1955555555555556</v>
+        <v>0.198744769874477</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="J17">
-        <v>0.4222222222222222</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="K17">
-        <v>0.06666666666666667</v>
+        <v>0.06903765690376569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008888888888888889</v>
+        <v>0.0104602510460251</v>
       </c>
       <c r="N17">
-        <v>0.002222222222222222</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="O17">
-        <v>0.08888888888888889</v>
+        <v>0.08577405857740586</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09555555555555556</v>
+        <v>0.09205020920502092</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005050505050505051</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1919191919191919</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="I18">
-        <v>0.1262626262626263</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="J18">
-        <v>0.5050505050505051</v>
+        <v>0.5046296296296297</v>
       </c>
       <c r="K18">
-        <v>0.07575757575757576</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="N18">
-        <v>0.005050505050505051</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="O18">
-        <v>0.02525252525252525</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06565656565656566</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02720450281425891</v>
+        <v>0.02530541012216405</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1857410881801126</v>
+        <v>0.1893542757417103</v>
       </c>
       <c r="I19">
-        <v>0.09380863039399624</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="J19">
-        <v>0.3874296435272045</v>
+        <v>0.3926701570680629</v>
       </c>
       <c r="K19">
-        <v>0.08536585365853659</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01594746716697936</v>
+        <v>0.01657940663176265</v>
       </c>
       <c r="N19">
-        <v>0.0009380863039399625</v>
+        <v>0.0008726003490401396</v>
       </c>
       <c r="O19">
-        <v>0.0975609756097561</v>
+        <v>0.0968586387434555</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1060037523452158</v>
+        <v>0.1029668411867365</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. Thomas (MN)_A.xlsx
+++ b/team_specific_matrix/St. Thomas (MN)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2006369426751592</v>
+        <v>0.2024922118380062</v>
       </c>
       <c r="C2">
-        <v>0.5732484076433121</v>
+        <v>0.5700934579439252</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009554140127388535</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1496815286624204</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06687898089171974</v>
+        <v>0.06853582554517133</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0053475935828877</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C3">
-        <v>0.03208556149732621</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0106951871657754</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7807486631016043</v>
+        <v>0.7842105263157895</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1711229946524064</v>
+        <v>0.1684210526315789</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07317073170731707</v>
+        <v>0.07421875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008130081300813009</v>
+        <v>0.0078125</v>
       </c>
       <c r="E6">
-        <v>0.008130081300813009</v>
+        <v>0.0078125</v>
       </c>
       <c r="F6">
-        <v>0.05284552845528456</v>
+        <v>0.0546875</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2682926829268293</v>
+        <v>0.265625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01626016260162602</v>
+        <v>0.015625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.16796875</v>
       </c>
       <c r="R6">
-        <v>0.09349593495934959</v>
+        <v>0.09375</v>
       </c>
       <c r="S6">
-        <v>0.3130081300813008</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07801418439716312</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01418439716312057</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09929078014184398</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1560283687943262</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02127659574468085</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1914893617021277</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="R7">
-        <v>0.05673758865248227</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="S7">
-        <v>0.3829787234042553</v>
+        <v>0.3802816901408451</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09490740740740741</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02546296296296296</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="E8">
-        <v>0.002314814814814815</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="F8">
-        <v>0.06712962962962964</v>
+        <v>0.06444444444444444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1875</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="R8">
-        <v>0.1064814814814815</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="S8">
-        <v>0.3703703703703703</v>
+        <v>0.3711111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1186440677966102</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0635593220338983</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1144067796610169</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02542372881355932</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1991525423728814</v>
+        <v>0.2066115702479339</v>
       </c>
       <c r="R9">
-        <v>0.1355932203389831</v>
+        <v>0.1322314049586777</v>
       </c>
       <c r="S9">
-        <v>0.326271186440678</v>
+        <v>0.3264462809917356</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1205837173579109</v>
+        <v>0.1184798807749627</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02457757296466974</v>
+        <v>0.02384500745156483</v>
       </c>
       <c r="E10">
-        <v>0.0007680491551459293</v>
+        <v>0.0007451564828614009</v>
       </c>
       <c r="F10">
-        <v>0.07450076804915515</v>
+        <v>0.07749627421758569</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1105990783410138</v>
+        <v>0.1073025335320417</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01920122887864823</v>
+        <v>0.01937406855439642</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2188940092165899</v>
+        <v>0.2220566318926975</v>
       </c>
       <c r="R10">
-        <v>0.08141321044546851</v>
+        <v>0.08420268256333831</v>
       </c>
       <c r="S10">
-        <v>0.3494623655913979</v>
+        <v>0.3464977645305514</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1511111111111111</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1244444444444444</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="L11">
-        <v>0.5155555555555555</v>
+        <v>0.5198237885462555</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008888888888888889</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6904761904761905</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2063492063492063</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="K12">
-        <v>0.007936507936507936</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="L12">
-        <v>0.07142857142857142</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02380952380952381</v>
+        <v>0.02362204724409449</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02238805970149254</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1641791044776119</v>
+        <v>0.1577060931899641</v>
       </c>
       <c r="I15">
-        <v>0.1082089552238806</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.3507462686567164</v>
+        <v>0.3584229390681004</v>
       </c>
       <c r="K15">
-        <v>0.02985074626865672</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01119402985074627</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N15">
-        <v>0.003731343283582089</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="O15">
-        <v>0.05970149253731343</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2473118279569892</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03139013452914798</v>
+        <v>0.03083700440528634</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1569506726457399</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="I16">
-        <v>0.09417040358744394</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="J16">
-        <v>0.4080717488789238</v>
+        <v>0.4140969162995595</v>
       </c>
       <c r="K16">
-        <v>0.1031390134529148</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03587443946188341</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06278026905829596</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1076233183856502</v>
+        <v>0.105726872246696</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01882845188284519</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.198744769874477</v>
+        <v>0.1996007984031936</v>
       </c>
       <c r="I17">
-        <v>0.100418410041841</v>
+        <v>0.09780439121756487</v>
       </c>
       <c r="J17">
-        <v>0.4225941422594142</v>
+        <v>0.4231536926147705</v>
       </c>
       <c r="K17">
-        <v>0.06903765690376569</v>
+        <v>0.06786427145708583</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0104602510460251</v>
+        <v>0.009980039920159681</v>
       </c>
       <c r="N17">
-        <v>0.002092050209205021</v>
+        <v>0.001996007984031936</v>
       </c>
       <c r="O17">
-        <v>0.08577405857740586</v>
+        <v>0.09181636726546906</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09205020920502092</v>
+        <v>0.08982035928143713</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004629629629629629</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1759259259259259</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="I18">
-        <v>0.1296296296296296</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="J18">
-        <v>0.5046296296296297</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="K18">
-        <v>0.06944444444444445</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009259259259259259</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="N18">
-        <v>0.004629629629629629</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O18">
-        <v>0.02777777777777778</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07407407407407407</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02530541012216405</v>
+        <v>0.02642796248934356</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1893542757417103</v>
+        <v>0.1926683716965047</v>
       </c>
       <c r="I19">
-        <v>0.09162303664921466</v>
+        <v>0.09121909633418585</v>
       </c>
       <c r="J19">
-        <v>0.3926701570680629</v>
+        <v>0.3938618925831202</v>
       </c>
       <c r="K19">
-        <v>0.08376963350785341</v>
+        <v>0.08184143222506395</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01657940663176265</v>
+        <v>0.01619778346121057</v>
       </c>
       <c r="N19">
-        <v>0.0008726003490401396</v>
+        <v>0.0008525149190110827</v>
       </c>
       <c r="O19">
-        <v>0.0968586387434555</v>
+        <v>0.09633418584825235</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1029668411867365</v>
+        <v>0.1005967604433078</v>
       </c>
     </row>
   </sheetData>
